--- a/5a/5a_test_EP-Results.xlsx
+++ b/5a/5a_test_EP-Results.xlsx
@@ -609,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1.966911991818798</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>41.42133374828161</v>
+        <v>43.38824574010047</v>
       </c>
       <c r="D4" t="n">
         <v>1.53492447271428</v>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>45.42550434387525</v>
+        <v>45.42550434387526</v>
       </c>
       <c r="H4" t="n">
-        <v>1.827052454018298</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.87257272425874</v>
+        <v>39.69962517827701</v>
       </c>
       <c r="J4" t="n">
         <v>1.53492447271428</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.73688378205184</v>
+        <v>41.73688378205181</v>
       </c>
       <c r="N4" t="n">
-        <v>1.07993857312988</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>17.88985933845241</v>
+        <v>18.96979791158227</v>
       </c>
       <c r="P4" t="n">
         <v>2.624115317616619</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09624736025939</v>
+        <v>22.09624736025941</v>
       </c>
     </row>
     <row r="5">
@@ -668,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1.705434579528873</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>31.67785326221768</v>
+        <v>33.38328784174657</v>
       </c>
       <c r="D5" t="n">
         <v>1.389044317194519</v>
@@ -686,10 +686,10 @@
         <v>35.2273828607556</v>
       </c>
       <c r="H5" t="n">
-        <v>1.582679788220006</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28.97247381500413</v>
+        <v>30.55515360322411</v>
       </c>
       <c r="J5" t="n">
         <v>1.389044317194519</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>32.39924862223313</v>
+        <v>32.39924862223314</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9375207761982393</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.59940711652948</v>
+        <v>14.5369278927277</v>
       </c>
       <c r="P5" t="n">
         <v>2.374717801686228</v>
@@ -727,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1.653266214634704</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15.78348049598702</v>
+        <v>17.4367467106217</v>
       </c>
       <c r="D6" t="n">
         <v>1.63306203188212</v>
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.59281330244329</v>
+        <v>19.60436255543994</v>
       </c>
       <c r="H6" t="n">
-        <v>1.529846862062415</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14.26822842958193</v>
+        <v>15.79807529164432</v>
       </c>
       <c r="J6" t="n">
         <v>1.63306203188212</v>
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>17.95501419379537</v>
+        <v>17.96569113646256</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9046466558428083</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7.192639940783728</v>
+        <v>8.097286596626544</v>
       </c>
       <c r="P6" t="n">
         <v>2.791891828333429</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>11.39511408096543</v>
+        <v>11.42373223789609</v>
       </c>
     </row>
     <row r="7">
@@ -786,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1.169558847129737</v>
+        <v>0.05742005408636161</v>
       </c>
       <c r="C7" t="n">
-        <v>7.479133766438638</v>
+        <v>8.64869261356837</v>
       </c>
       <c r="D7" t="n">
         <v>1.472726479133583</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.24273524013952</v>
+        <v>10.66213437492234</v>
       </c>
       <c r="H7" t="n">
-        <v>1.10239990819617</v>
+        <v>0.04000383649872052</v>
       </c>
       <c r="I7" t="n">
-        <v>6.823330894922528</v>
+        <v>7.925730803118692</v>
       </c>
       <c r="J7" t="n">
         <v>1.472726479133583</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9.550324873678878</v>
+        <v>9.921756346885019</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6391782463816779</v>
+        <v>0.01928432571303607</v>
       </c>
       <c r="O7" t="n">
-        <v>3.508388504033662</v>
+        <v>4.147566750415333</v>
       </c>
       <c r="P7" t="n">
         <v>2.51778128582448</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>6.534476048490261</v>
+        <v>7.167927590086874</v>
       </c>
     </row>
     <row r="8">
@@ -845,10 +845,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7376856978679016</v>
+        <v>0.1855770839514692</v>
       </c>
       <c r="C8" t="n">
-        <v>1.600451751927149</v>
+        <v>2.33813744979505</v>
       </c>
       <c r="D8" t="n">
         <v>1.5839932522982</v>
@@ -860,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.37044193021952</v>
+        <v>4.626151758043037</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6881618228359422</v>
+        <v>0.1495203897706933</v>
       </c>
       <c r="I8" t="n">
-        <v>1.370462948376337</v>
+        <v>2.058624771212279</v>
       </c>
       <c r="J8" t="n">
         <v>1.5839932522982</v>
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3.090266160020747</v>
+        <v>4.31058238527949</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3602530525196722</v>
+        <v>0.09417518199697439</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5001815566308274</v>
+        <v>0.8604346091504992</v>
       </c>
       <c r="P8" t="n">
         <v>2.708003572975025</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.147293965864602</v>
+        <v>4.181057336120817</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1963870272056452</v>
+        <v>0.7876388639844289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06165382955860385</v>
+        <v>0.2580408567642488</v>
       </c>
       <c r="D9" t="n">
         <v>1.568079053514227</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.413232100880937</v>
+        <v>3.127181497137753</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1820227773408128</v>
+        <v>0.6915568499489979</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04397442956086844</v>
+        <v>0.2259972069016814</v>
       </c>
       <c r="J9" t="n">
         <v>1.568079053514227</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3779084284139403</v>
+        <v>2.999055833239754</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07076559906379748</v>
+        <v>0.5062267337286217</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01401978534950701</v>
+        <v>0.08478538441330444</v>
       </c>
       <c r="P9" t="n">
         <v>2.680796571237164</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1966765054714592</v>
+        <v>3.785231412253938</v>
       </c>
     </row>
     <row r="10">
@@ -963,10 +963,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06087000779030163</v>
+        <v>1.463282424146701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002373161230450817</v>
+        <v>0.06324316902075244</v>
       </c>
       <c r="D10" t="n">
         <v>1.488640677917557</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09072380911884717</v>
+        <v>3.503482748342506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05656820405395099</v>
+        <v>1.31525243943506</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001504089820674312</v>
+        <v>0.05807229387462531</v>
       </c>
       <c r="J10" t="n">
         <v>1.488640677917557</v>
@@ -996,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09099601466305907</v>
+        <v>3.350281888484738</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004565522520244995</v>
+        <v>0.9554136389905469</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002866898542971016</v>
+        <v>0.004852212374542097</v>
       </c>
       <c r="P10" t="n">
         <v>2.54498828756234</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.007537899946319629</v>
+        <v>3.993570616184925</v>
       </c>
     </row>
     <row r="11">
@@ -1022,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.146088018696724</v>
+        <v>1.108119751608908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003310993262333347</v>
+        <v>0.1493990119590573</v>
       </c>
       <c r="D11" t="n">
         <v>1.63306203188212</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2506190515140241</v>
+        <v>3.425134608386204</v>
       </c>
       <c r="H11" t="n">
-        <v>0.128221262522289</v>
+        <v>1.028051814845745</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001503625672142756</v>
+        <v>0.1297248881944317</v>
       </c>
       <c r="J11" t="n">
         <v>1.63306203188212</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2235480076866279</v>
+        <v>3.325392547858415</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.8725521170129921</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.198997758282535</v>
       </c>
     </row>
     <row r="12">
@@ -1081,10 +1081,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3582482554445525</v>
+        <v>0.4061203599412422</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07659629132385531</v>
+        <v>0.4348445467684073</v>
       </c>
       <c r="D12" t="n">
         <v>1.472726479133585</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8388649123777717</v>
+        <v>2.796986613977259</v>
       </c>
       <c r="H12" t="n">
-        <v>0.320987615711377</v>
+        <v>0.368701276223762</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04857315569681293</v>
+        <v>0.3695607714081902</v>
       </c>
       <c r="J12" t="n">
         <v>1.472726479133585</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7537626536286299</v>
+        <v>2.694283754899562</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06848283780367498</v>
+        <v>0.3958818036816055</v>
       </c>
       <c r="O12" t="n">
-        <v>0.016518532442473</v>
+        <v>0.08500137024614791</v>
       </c>
       <c r="P12" t="n">
         <v>2.517781285824476</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2158490041172107</v>
+        <v>3.481959687886255</v>
       </c>
     </row>
     <row r="13">
@@ -1140,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>1.03918727570751</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.563623955766533</v>
+        <v>4.60281123147405</v>
       </c>
       <c r="D13" t="n">
         <v>1.534924472714281</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.151034118570725</v>
+        <v>6.640069835248847</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9713901127373348</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.149506314044721</v>
+        <v>4.120896426782052</v>
       </c>
       <c r="J13" t="n">
         <v>1.534924472714281</v>
@@ -1173,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5.677653780917369</v>
+        <v>6.158155030556849</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4997867046002072</v>
+        <v>0.009204905923142903</v>
       </c>
       <c r="O13" t="n">
-        <v>1.307174785530841</v>
+        <v>1.806961490131047</v>
       </c>
       <c r="P13" t="n">
         <v>2.62411531761662</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.750471458144756</v>
+        <v>4.942615844731327</v>
       </c>
     </row>
     <row r="14">
@@ -1199,10 +1199,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>1.413501116133462</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>14.21242836051702</v>
+        <v>15.62592947665047</v>
       </c>
       <c r="D14" t="n">
         <v>1.51622528914311</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>17.48018581805212</v>
+        <v>17.63737546059584</v>
       </c>
       <c r="H14" t="n">
-        <v>1.308077294864253</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.766118673581</v>
+        <v>14.07419596844526</v>
       </c>
       <c r="J14" t="n">
         <v>1.51622528914311</v>
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.92475384981552</v>
+        <v>16.08564195239063</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7655095144023436</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.726145966566856</v>
+        <v>6.491655480969197</v>
       </c>
       <c r="P14" t="n">
         <v>2.592147090574632</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.321999978605907</v>
+        <v>9.579023266346097</v>
       </c>
     </row>
     <row r="15">
@@ -1258,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>1.908546618360148</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>35.99072349618157</v>
+        <v>37.89927011454165</v>
       </c>
       <c r="D15" t="n">
         <v>1.488640677917556</v>
@@ -1273,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.87622726971674</v>
+        <v>39.8762272697167</v>
       </c>
       <c r="H15" t="n">
-        <v>1.769822827989612</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>32.69429446873841</v>
+        <v>34.46411729672797</v>
       </c>
       <c r="J15" t="n">
         <v>1.488640677917556</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>36.44107445190306</v>
+        <v>36.44107445190302</v>
       </c>
       <c r="N15" t="n">
-        <v>1.035718354951968</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.83583527727405</v>
+        <v>15.87155363222603</v>
       </c>
       <c r="P15" t="n">
         <v>2.544988287562345</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>18.90485839704586</v>
+        <v>18.90485839704587</v>
       </c>
     </row>
     <row r="16">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.35568565031836</v>
+        <v>4.008158537719111</v>
       </c>
       <c r="C16" t="n">
-        <v>151.8729631126924</v>
+        <v>164.2286487630108</v>
       </c>
       <c r="D16" t="n">
         <v>18.31604923544514</v>
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>178.9597647576643</v>
+        <v>192.5519939264413</v>
       </c>
       <c r="H16" t="n">
-        <v>11.46723093055246</v>
+        <v>3.593086606722979</v>
       </c>
       <c r="I16" t="n">
-        <v>138.0125435692583</v>
+        <v>149.4797744998106</v>
       </c>
       <c r="J16" t="n">
         <v>18.31604923544514</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>164.2214348188082</v>
+        <v>177.388047732245</v>
       </c>
       <c r="N16" t="n">
-        <v>6.366365837414513</v>
+        <v>2.852738707046919</v>
       </c>
       <c r="O16" t="n">
-        <v>64.59045749344811</v>
+        <v>70.9568233308626</v>
       </c>
       <c r="P16" t="n">
         <v>31.31321847514678</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>91.93722109513962</v>
+        <v>111.1219179033226</v>
       </c>
     </row>
   </sheetData>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5.407086020125989</v>
+        <v>0.003523222791451326</v>
       </c>
       <c r="C4" t="n">
-        <v>47.96335411631303</v>
+        <v>53.36691691364751</v>
       </c>
       <c r="D4" t="n">
         <v>9.860824078616865</v>
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.23456356813151</v>
+        <v>65.25964631247109</v>
       </c>
       <c r="H4" t="n">
-        <v>4.409065815167003</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>45.43062641653827</v>
+        <v>49.83969223170537</v>
       </c>
       <c r="J4" t="n">
         <v>9.860824078616865</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>61.66189003634074</v>
+        <v>61.72889840773749</v>
       </c>
       <c r="N4" t="n">
-        <v>2.41429771291171</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>29.21491775056112</v>
+        <v>31.62921546347279</v>
       </c>
       <c r="P4" t="n">
         <v>5.080074706843542</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>38.49706528779593</v>
+        <v>38.73767226773158</v>
       </c>
     </row>
     <row r="5">
@@ -1602,10 +1602,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4.774183401809696</v>
+        <v>5.118779113202148e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>37.15606658493346</v>
+        <v>41.93019879895204</v>
       </c>
       <c r="D5" t="n">
         <v>8.970262848110714</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>52.62255758499754</v>
+        <v>52.74029922027952</v>
       </c>
       <c r="H5" t="n">
-        <v>3.907407318919403</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>35.32657491287614</v>
+        <v>39.23398223179551</v>
       </c>
       <c r="J5" t="n">
         <v>8.970262848110714</v>
@@ -1635,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>49.97759595108278</v>
+        <v>50.04403146533186</v>
       </c>
       <c r="N5" t="n">
-        <v>2.172071135701774</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>23.08744208629819</v>
+        <v>25.25951322199993</v>
       </c>
       <c r="P5" t="n">
         <v>4.621277597603948</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>31.46704848548007</v>
+        <v>31.72057720502951</v>
       </c>
     </row>
     <row r="6">
@@ -1661,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4.949995649612805</v>
+        <v>0.3703652757392631</v>
       </c>
       <c r="C6" t="n">
-        <v>22.83290470825915</v>
+        <v>27.55876811402578</v>
       </c>
       <c r="D6" t="n">
         <v>10.20023942962648</v>
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.33789838567515</v>
+        <v>40.20131713520547</v>
       </c>
       <c r="H6" t="n">
-        <v>4.069399267442995</v>
+        <v>0.168971159612558</v>
       </c>
       <c r="I6" t="n">
-        <v>21.64708455252042</v>
+        <v>25.64761443154307</v>
       </c>
       <c r="J6" t="n">
         <v>10.20023942962648</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>37.36162944856234</v>
+        <v>38.08876933659606</v>
       </c>
       <c r="N6" t="n">
-        <v>2.35870665746748</v>
+        <v>0.07912838314938427</v>
       </c>
       <c r="O6" t="n">
-        <v>15.10160695403394</v>
+        <v>17.43005085903279</v>
       </c>
       <c r="P6" t="n">
         <v>5.254933859185302</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>24.11295636738135</v>
+        <v>24.83605741718143</v>
       </c>
     </row>
     <row r="7">
@@ -1720,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3.611902494676442</v>
+        <v>1.879602158249501</v>
       </c>
       <c r="C7" t="n">
-        <v>12.33061036677322</v>
+        <v>15.6629074720856</v>
       </c>
       <c r="D7" t="n">
         <v>9.691116403112074</v>
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.13361342528708</v>
+        <v>29.2163590996063</v>
       </c>
       <c r="H7" t="n">
-        <v>3.011383924204158</v>
+        <v>1.392566128807578</v>
       </c>
       <c r="I7" t="n">
-        <v>11.81769595261763</v>
+        <v>14.72949104980054</v>
       </c>
       <c r="J7" t="n">
         <v>9.691116403112074</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>23.19500284044122</v>
+        <v>27.79590664787931</v>
       </c>
       <c r="N7" t="n">
-        <v>1.735639018502264</v>
+        <v>0.7832207945597867</v>
       </c>
       <c r="O7" t="n">
-        <v>8.619876583339176</v>
+        <v>10.34335312923848</v>
       </c>
       <c r="P7" t="n">
         <v>4.992645130672655</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>15.05331305849497</v>
+        <v>18.10195212063004</v>
       </c>
     </row>
     <row r="8">
@@ -1779,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2.293028685956859</v>
+        <v>3.914612338530455</v>
       </c>
       <c r="C8" t="n">
-        <v>3.005483381755938</v>
+        <v>4.775575600992804</v>
       </c>
       <c r="D8" t="n">
         <v>10.05154318061275</v>
@@ -1794,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9.731255045518907</v>
+        <v>20.79593752666187</v>
       </c>
       <c r="H8" t="n">
-        <v>2.040754522689759</v>
+        <v>2.866588289288364</v>
       </c>
       <c r="I8" t="n">
-        <v>2.652013759588119</v>
+        <v>4.369193619499478</v>
       </c>
       <c r="J8" t="n">
         <v>10.05154318061275</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>9.553012808738544</v>
+        <v>19.34153149592645</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039700769762619</v>
+        <v>1.656942655427057</v>
       </c>
       <c r="O8" t="n">
-        <v>1.972032320828039</v>
+        <v>2.99334135109436</v>
       </c>
       <c r="P8" t="n">
         <v>5.178328897207003</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.338868361079745</v>
+        <v>11.88281931025428</v>
       </c>
     </row>
     <row r="9">
@@ -1838,10 +1838,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7148214218905733</v>
+        <v>7.46212727707054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3574706853186282</v>
+        <v>0.9429456801574929</v>
       </c>
       <c r="D9" t="n">
         <v>9.839812652125801</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.941790088251425</v>
+        <v>20.24535658480105</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5886060096054041</v>
+        <v>6.236929522647933</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2601528662829954</v>
+        <v>0.7233775146926141</v>
       </c>
       <c r="J9" t="n">
         <v>9.839812652125801</v>
@@ -1871,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.75152322701772</v>
+        <v>18.80059066491356</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1909495068520049</v>
+        <v>3.905069171349163</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1177523437502966</v>
+        <v>0.3087018506023015</v>
       </c>
       <c r="P9" t="n">
         <v>5.069250092650956</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5275166812694361</v>
+        <v>11.28349209004963</v>
       </c>
     </row>
     <row r="10">
@@ -1897,10 +1897,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2263557981309963</v>
+        <v>10.42345315081325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02824066098147839</v>
+        <v>0.2329871607987106</v>
       </c>
       <c r="D10" t="n">
         <v>9.86082407861687</v>
@@ -1912,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4321500105979432</v>
+        <v>22.54564648764408</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2055993547638763</v>
+        <v>8.943820855424313</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01239656336715938</v>
+        <v>0.1723294669084261</v>
       </c>
       <c r="J10" t="n">
         <v>9.86082407861687</v>
@@ -1930,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.463857017107775</v>
+        <v>21.00535649836486</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03711606823253442</v>
+        <v>5.788853031667667</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00252530285492661</v>
+        <v>0.03964137108746103</v>
       </c>
       <c r="P10" t="n">
         <v>5.080074706843537</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05902398050825188</v>
+        <v>12.93695120701391</v>
       </c>
     </row>
     <row r="11">
@@ -1956,10 +1956,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5181647393941278</v>
+        <v>8.508188093226043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1056291243099626</v>
+        <v>0.5581907750035163</v>
       </c>
       <c r="D11" t="n">
         <v>10.24226228260862</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.068015324924693</v>
+        <v>21.38867186647465</v>
       </c>
       <c r="H11" t="n">
-        <v>0.427592907015156</v>
+        <v>7.249136449123127</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05535368029581286</v>
+        <v>0.3770907421126785</v>
       </c>
       <c r="J11" t="n">
         <v>10.24226228260862</v>
@@ -1989,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9585573034352549</v>
+        <v>19.9485201894809</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1007509259608401</v>
+        <v>4.632664538260267</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01355292746892633</v>
+        <v>0.1143038534297664</v>
       </c>
       <c r="P11" t="n">
         <v>5.276583087570472</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1957765479015601</v>
+        <v>12.10358219489698</v>
       </c>
     </row>
     <row r="12">
@@ -2015,10 +2015,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>1.508537781652879</v>
+        <v>5.194893547629829</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9850294635700612</v>
+        <v>2.015324815550581</v>
       </c>
       <c r="D12" t="n">
         <v>9.458374448134057</v>
@@ -2030,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4.893670911342645</v>
+        <v>18.61741516854046</v>
       </c>
       <c r="H12" t="n">
-        <v>1.272668318497316</v>
+        <v>4.257708981420921</v>
       </c>
       <c r="I12" t="n">
-        <v>0.78146981647734</v>
+        <v>1.6129681761191</v>
       </c>
       <c r="J12" t="n">
         <v>9.458374448134057</v>
@@ -2048,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4.608789257215011</v>
+        <v>17.27787396290007</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4403246393690788</v>
+        <v>2.581285538544625</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4865265987005259</v>
+        <v>0.891170517833353</v>
       </c>
       <c r="P12" t="n">
         <v>4.872741711924014</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.641982976654256</v>
+        <v>10.29402012552799</v>
       </c>
     </row>
     <row r="13">
@@ -2074,10 +2074,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>3.987303712655112</v>
+        <v>1.762865128392034</v>
       </c>
       <c r="C13" t="n">
-        <v>7.129736707982483</v>
+        <v>10.20127772944474</v>
       </c>
       <c r="D13" t="n">
         <v>10.05154318061275</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>19.96200107938377</v>
+        <v>24.06989244497538</v>
       </c>
       <c r="H13" t="n">
-        <v>3.400813309588535</v>
+        <v>1.053831112894233</v>
       </c>
       <c r="I13" t="n">
-        <v>6.566858106110014</v>
+        <v>9.530998906305229</v>
       </c>
       <c r="J13" t="n">
         <v>10.05154318061275</v>
@@ -2107,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>19.25608656118762</v>
+        <v>22.69057960633807</v>
       </c>
       <c r="N13" t="n">
-        <v>1.905453165948636</v>
+        <v>0.5874879713042481</v>
       </c>
       <c r="O13" t="n">
-        <v>4.930254070971312</v>
+        <v>6.73307170682959</v>
       </c>
       <c r="P13" t="n">
         <v>5.178328897207007</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11.80741526869589</v>
+        <v>14.55309498186671</v>
       </c>
     </row>
     <row r="14">
@@ -2133,10 +2133,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>4.517565456016944</v>
+        <v>0.4953130786941495</v>
       </c>
       <c r="C14" t="n">
-        <v>22.37792510110015</v>
+        <v>26.71094705442725</v>
       </c>
       <c r="D14" t="n">
         <v>9.691116403112062</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>37.0712540646855</v>
+        <v>38.88010960239259</v>
       </c>
       <c r="H14" t="n">
-        <v>3.761230744598515</v>
+        <v>0.3103750360770448</v>
       </c>
       <c r="I14" t="n">
-        <v>21.14321227282288</v>
+        <v>24.80104959718819</v>
       </c>
       <c r="J14" t="n">
         <v>9.691116403112062</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>35.29288831592179</v>
+        <v>36.78527410253642</v>
       </c>
       <c r="N14" t="n">
-        <v>2.120646277494882</v>
+        <v>0.1433702306150518</v>
       </c>
       <c r="O14" t="n">
-        <v>14.26062494568943</v>
+        <v>16.3714692891397</v>
       </c>
       <c r="P14" t="n">
         <v>4.992645130672653</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.28445586399181</v>
+        <v>23.49021771658652</v>
       </c>
     </row>
     <row r="15">
@@ -2192,10 +2192,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>5.352923557563144</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7066821740238</v>
+        <v>50.05960573158687</v>
       </c>
       <c r="D15" t="n">
         <v>9.818801225634726</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>61.88159892048959</v>
+        <v>61.89870265481433</v>
       </c>
       <c r="H15" t="n">
-        <v>4.362508016368754</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>42.29620153474256</v>
+        <v>46.6587095511113</v>
       </c>
       <c r="J15" t="n">
         <v>9.818801225634726</v>
@@ -2225,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>58.4753834000042</v>
+        <v>58.49780647433876</v>
       </c>
       <c r="N15" t="n">
-        <v>2.399274862955049</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.37806949302631</v>
+        <v>29.77734435598134</v>
       </c>
       <c r="P15" t="n">
         <v>5.058425478458364</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>36.61775610875277</v>
+        <v>36.85606553203244</v>
       </c>
     </row>
     <row r="16">
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.86186871948557</v>
+        <v>40.01499445892766</v>
       </c>
       <c r="C16" t="n">
-        <v>198.9791330753214</v>
+        <v>234.0156458466729</v>
       </c>
       <c r="D16" t="n">
         <v>117.7367202109238</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3103684092857</v>
+        <v>415.8593541038668</v>
       </c>
       <c r="H16" t="n">
-        <v>31.45702950886087</v>
+        <v>32.47992753529607</v>
       </c>
       <c r="I16" t="n">
-        <v>187.9896404342393</v>
+        <v>217.6964975187815</v>
       </c>
       <c r="J16" t="n">
         <v>117.7367202109238</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>302.556216167055</v>
+        <v>392.0051388523437</v>
       </c>
       <c r="N16" t="n">
-        <v>16.91493074115887</v>
+        <v>20.15802231487725</v>
       </c>
       <c r="O16" t="n">
-        <v>125.1851813775222</v>
+        <v>141.8911769697419</v>
       </c>
       <c r="P16" t="n">
         <v>60.65530929683945</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.6031789880061</v>
+        <v>246.7965021688011</v>
       </c>
     </row>
   </sheetData>
